--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32949.76975971542</v>
+        <v>6557004.182183369</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32949.76975971542</v>
+        <v>6557004.182183369</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9965.339587557302</v>
+        <v>599693.406047156</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9965.339587557302</v>
+        <v>599693.406047156</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189236928.541571</v>
+        <v>48487083.62267678</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10620.2919709369</v>
+        <v>1127977.2700424</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20323.34161225051</v>
+        <v>2103994.47630016</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30026.3912535641</v>
+        <v>3080011.682557923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40237.00624295075</v>
+        <v>4023557.155672967</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50447.62123233634</v>
+        <v>4967102.628788064</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60267.71686799471</v>
+        <v>5942821.343638001</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70087.81250365308</v>
+        <v>6918540.058487935</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79907.90813931117</v>
+        <v>7894258.77333792</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89942.85082901186</v>
+        <v>8838459.723237276</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99999.17533689301</v>
+        <v>9786915.654954966</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109852.4087331851</v>
+        <v>10767209.42202399</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119684.1518741442</v>
+        <v>11743226.62828175</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129515.8950151037</v>
+        <v>12719243.83453952</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139726.4015673392</v>
+        <v>13662767.7286615</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149937.0165567278</v>
+        <v>14606313.20177644</v>
       </c>
     </row>
   </sheetData>
